--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl28-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl28-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1070356666666667</v>
+        <v>0.1305386666666667</v>
       </c>
       <c r="H2">
-        <v>0.321107</v>
+        <v>0.391616</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5494645184735164</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5494645184735164</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,16 +561,78 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.322540475258445</v>
+        <v>1.612945251143111</v>
       </c>
       <c r="R2">
+        <v>14.516507260288</v>
+      </c>
+      <c r="S2">
+        <v>0.5494645184735164</v>
+      </c>
+      <c r="T2">
+        <v>0.5494645184735164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.1070356666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.321107</v>
+      </c>
+      <c r="I3">
+        <v>0.4505354815264836</v>
+      </c>
+      <c r="J3">
+        <v>0.4505354815264836</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>12.35607266666667</v>
+      </c>
+      <c r="N3">
+        <v>37.068218</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1.322540475258444</v>
+      </c>
+      <c r="R3">
         <v>11.902864277326</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="S3">
+        <v>0.4505354815264836</v>
+      </c>
+      <c r="T3">
+        <v>0.4505354815264836</v>
       </c>
     </row>
   </sheetData>
